--- a/world-chess-core/docs/RESTful.xlsx
+++ b/world-chess-core/docs/RESTful.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="RESTful API" sheetId="1" r:id="rId1"/>
-    <sheet name="WebService" sheetId="2" r:id="rId2"/>
-    <sheet name="WebServiceClient" sheetId="3" r:id="rId3"/>
+    <sheet name="WebService - javax.jws" sheetId="2" r:id="rId2"/>
+    <sheet name="WebServiceClient - javax.xml.ws" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" ref="B1:B6" si="0">"@RestMethodGet"</f>
         <v>@RestMethodGet</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -936,7 +936,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" si="0"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -945,7 +945,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" si="0"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -954,7 +954,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" si="0"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -963,7 +963,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" si="0"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -972,7 +972,7 @@
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="str">
-        <f>"@RestMethodGet"</f>
+        <f t="shared" si="0"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -981,7 +981,7 @@
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
-        <f t="shared" ref="B7:B37" si="0">"@RestMethodGet"</f>
+        <f t="shared" ref="B7:B37" si="1">"@RestMethodGet"</f>
         <v>@RestMethodGet</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -990,7 +990,7 @@
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -999,7 +999,7 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1035,7 +1035,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1062,7 +1062,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1089,7 +1089,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1098,7 +1098,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1107,14 +1107,14 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1182,19 +1182,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="30" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1230,7 +1230,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1239,7 +1239,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1257,7 +1257,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1266,7 +1266,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>@RestMethodGet</v>
       </c>
       <c r="C37" s="1" t="s">
